--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2427.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2427.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.029491620334877</v>
+        <v>0.9147897958755493</v>
       </c>
       <c r="B1">
-        <v>2.084748096298374</v>
+        <v>1.905754923820496</v>
       </c>
       <c r="C1">
-        <v>8.983032442929456</v>
+        <v>3.423617362976074</v>
       </c>
       <c r="D1">
-        <v>2.17933390333286</v>
+        <v>3.744511365890503</v>
       </c>
       <c r="E1">
-        <v>0.9934518182017291</v>
+        <v>0.9344961047172546</v>
       </c>
     </row>
   </sheetData>
